--- a/Finflux Automation Excels/Client/2476-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Finflux Automation Excels/Client/2476-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="8"/>
   </bookViews>
@@ -216,8 +221,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +244,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -324,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,9 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -373,6 +382,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,9 +494,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,6 +546,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,7 +918,7 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="21" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="20" customWidth="1"/>
     <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1570,38 +1629,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -2025,8 +2084,8 @@
       <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2052,8 +2111,8 @@
       <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2079,10 +2138,10 @@
       <c r="G4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2161,10 +2220,10 @@
       <c r="G2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2188,8 +2247,8 @@
       <c r="G3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2250,82 +2309,82 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>158</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>42064</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>159</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>42064</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="23" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>160</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>42064</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2340,218 +2399,232 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="7.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="25">
         <v>150</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="26">
         <v>42036</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="25">
         <v>151</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="26">
         <v>42036</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="25">
         <v>152</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="26">
         <v>42064</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="25">
         <v>153</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="26">
         <v>42064</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="25">
         <v>161</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="26">
         <v>42095</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="25">
         <v>162</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="26">
         <v>42095</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="28" t="s">
         <v>62</v>
       </c>
     </row>
